--- a/referencias srs para app de transporte.xlsx
+++ b/referencias srs para app de transporte.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willian Steven G\Desktop\UCC 7tim semestre\ingenieria software y requerimientos MIERCOLES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willian Steven G\Desktop\UCC 7tim semestre\ingenieria software y requerimientos MIERCOLES\Ghitha proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC54B96C-2D5B-4E70-A6BF-5E74E0503747}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688F7965-CB5F-4560-90FB-0DF6428CE3EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="20670" windowHeight="11250" xr2:uid="{704C1A88-D019-46D7-9F50-932BC43104CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{704C1A88-D019-46D7-9F50-932BC43104CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="134">
   <si>
     <t>Número de requisito</t>
-  </si>
-  <si>
-    <t>RF 1</t>
   </si>
   <si>
     <t>Nombre de requisito</t>
@@ -93,76 +90,376 @@
     <t xml:space="preserve"> Baja/ Opcional</t>
   </si>
   <si>
-    <t>RF 2</t>
-  </si>
-  <si>
-    <t>RF 3</t>
-  </si>
-  <si>
-    <t>RF 4</t>
-  </si>
-  <si>
-    <t>Requerimientos</t>
-  </si>
-  <si>
-    <t>Registro de usuarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El usuario sera registrado en la aplicación con un respectivo ID que es el tipo de documento que tiene cada usuario ya sea Cedula o un tipo de  Pasaporte, se registrara con un nombre, apellido, celular, correo, contraseña y una pregunta de seguridad para poder recuper la contraseña olvidada.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formas de pagos </t>
-  </si>
-  <si>
-    <t>La aplicación se le implemntara diferentes formas de pagos como por ejemplo pagos por medio de credito y devito pagos por PSE y Nequi</t>
-  </si>
-  <si>
-    <t>Tipos de transporte</t>
-  </si>
-  <si>
-    <t>la app tendra una opcion donde le indicara los diferentes tipos de transporte como Taxi, Buses, Maritimos, Aéreos.</t>
-  </si>
-  <si>
-    <t>Ventas adicionales</t>
-  </si>
-  <si>
-    <t>La app solicitara al usuario las diferentes topos de ventas adicionales que tendra nuestro sistema donde podra comprar el usuario bebidas o comida empaquetada y aplicandole la formas de pagos que tiene la aplicion como pagos por Nequi y pagos por pse, devito y credito.</t>
-  </si>
-  <si>
-    <t>Informacion del conductor</t>
-  </si>
-  <si>
-    <t>RF 5</t>
-  </si>
-  <si>
-    <t>Se le solicitara al conductor la informacion como la experiencia de manejo el estado de salud del conductor y el tiempo que solicita descansar.</t>
-  </si>
-  <si>
-    <t>RF 6</t>
-  </si>
-  <si>
-    <t>Un chat en la app</t>
-  </si>
-  <si>
-    <t>Se le implementara a la aplicion un chat donde el usuario como el socio podra interactuar le respondera servicios adicionales como indicaciones.</t>
-  </si>
-  <si>
-    <t>RF 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiquetes </t>
-  </si>
-  <si>
-    <t>El usuario tendra los veneficios de poder tanto como comprar los tiquetes como cancelarlo por si tiene algun incombeniente y tambin podra recervar tiquetes.</t>
-  </si>
-  <si>
-    <t>RF 8</t>
-  </si>
-  <si>
-    <t>Calificacion de servicio</t>
-  </si>
-  <si>
-    <t>E usuario a la hora de terminar su servisio tendra unas opciones de calificar si fue bueno, regular y malo para a futuro mejorar el servicio.</t>
+    <t>Requerimientos del usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementacion de Pagos </t>
+  </si>
+  <si>
+    <t>La aplicación se le implemntara una interfas de pagos como por ejemplo a la hora que el usuario quiera pagar le parecera una interfas donde elijira la dorma qu desearia pagar.</t>
+  </si>
+  <si>
+    <t>Formas de pagos</t>
+  </si>
+  <si>
+    <t>La app se le requiere a la hora de que el usuario quiera pagar tenga eleccion de distintas formas de pagar como por Nequi Coetrans, Efectivo, Pagos Virtuales como PSE.</t>
+  </si>
+  <si>
+    <t>Pagos por Millas</t>
+  </si>
+  <si>
+    <t>Al sistema de formas de pago tambien se requerira agregar la forma de pargar or Millas donde el usuario podra dirigirse a cualquier punto donde pueda realizar el pago de millas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comunicación </t>
+  </si>
+  <si>
+    <t>Se le solicita agregar a la app un medio de comunicación para que tanto como los usuario y los conductores puedan interactuar entre si.</t>
+  </si>
+  <si>
+    <t>Un chat para la empresa de transporte</t>
+  </si>
+  <si>
+    <t>Este requisito se implementara para que a la hora de solicitar un servicio de transporte el usuario pueda comunicarse en chat privados de usuario a empresa de trasnporte.</t>
+  </si>
+  <si>
+    <t>Red social</t>
+  </si>
+  <si>
+    <t>RQF 1</t>
+  </si>
+  <si>
+    <t>RQF 1.1</t>
+  </si>
+  <si>
+    <t>RQF 1.1.1</t>
+  </si>
+  <si>
+    <t>RQF 1.1.2</t>
+  </si>
+  <si>
+    <t>RQF 1.2</t>
+  </si>
+  <si>
+    <t>RQF 1.2.1</t>
+  </si>
+  <si>
+    <t>RQF 1.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Se requiere implementar unos tipos de red social donde se incliran paguinas web, videos multimedias, publicaciones entre pasajeros y algunas experiencias de viajes.</t>
+  </si>
+  <si>
+    <t>RQF 1.2.3</t>
+  </si>
+  <si>
+    <t>Sistema multimedia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A la app se le incluira unas salas multimedias donde el usuario podra ver tanto Videos como Peliculas.</t>
+  </si>
+  <si>
+    <t>RQF 1.2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publicaciones </t>
+  </si>
+  <si>
+    <t>La siguiente funcion es la implementacion de Publicaciones entre Usuarios donde podran compartir su experiencia de viajes.</t>
+  </si>
+  <si>
+    <t>RQF 1.2.5</t>
+  </si>
+  <si>
+    <t>Calificacion del servicio</t>
+  </si>
+  <si>
+    <t>Implementacion de calificacion e servicio donde al finlisar el servicio de un cliente el podra dar su respectiva opinio por medio de una interfas corporada donde tendra la opcion de Calificarlo como BUENO, MEDIO y MALO, tambien pueden dejar un pequello comentario respecto al servicio.</t>
+  </si>
+  <si>
+    <t>RQF 1.3</t>
+  </si>
+  <si>
+    <t>Ventas Adicionales</t>
+  </si>
+  <si>
+    <t>Se requiere agregar algunos productos de ventas como comidas y bebidas, por lo tanto se implementara un boton de ventas adicionales.</t>
+  </si>
+  <si>
+    <t>RQF 1.4</t>
+  </si>
+  <si>
+    <t>Otros servicios</t>
+  </si>
+  <si>
+    <t>La app se requiere agregar otros tipos de servicios como hacer un transbordo o si no elegir un medio de transporte.</t>
+  </si>
+  <si>
+    <t>RQF 1.4.1</t>
+  </si>
+  <si>
+    <t>Poder hacer un transbordo</t>
+  </si>
+  <si>
+    <t>a la hora de que el usuario quiera hacer un transbordo oprimira un boton de hacer el transbordo donde puede elegir ir a casa o si no ir a la terminal.</t>
+  </si>
+  <si>
+    <t>RQF 1.4.2</t>
+  </si>
+  <si>
+    <t>Medios de transportes</t>
+  </si>
+  <si>
+    <t>A la app se le agregara un tipo de categoria donde el usuario puede elegir entre Maritimo o Aereo..</t>
+  </si>
+  <si>
+    <t>RQF 1.5</t>
+  </si>
+  <si>
+    <t>Compra de Tickets</t>
+  </si>
+  <si>
+    <t>RQF 1.5.1</t>
+  </si>
+  <si>
+    <t>El usuario puede seleccionar la opcion tanto reservar tickete como comprar de inmediato.</t>
+  </si>
+  <si>
+    <t>Reservar Tickets</t>
+  </si>
+  <si>
+    <t>A la hora que el usuario tenga un un tickets reservado el tiene la opcion en un boton tanto cancelar reserva como posponerla.</t>
+  </si>
+  <si>
+    <t>RQF 1.5.2</t>
+  </si>
+  <si>
+    <t>Compra de Tickets de inmedianto</t>
+  </si>
+  <si>
+    <t>La aplicación tiene la opcion de Comprar el tickets de forma inmediata.</t>
+  </si>
+  <si>
+    <t>Requerimientos del Conductor</t>
+  </si>
+  <si>
+    <t>Servicio del usuarios</t>
+  </si>
+  <si>
+    <t>El usuario tendra los siguietes servicios tant como formas de pagos, cancelacion de tickest, reservas o posponer un tickest, sercicios de ventas adicionales, seleccionar distintos tipos de transportes como paritimos o aereos y tambien tendran un tipos de redes sociales como publicar experiencias de viajes tambien se le aplicara un sistema multimedia donde podran ver videos como peliculas.</t>
+  </si>
+  <si>
+    <t>Disponibilidad</t>
+  </si>
+  <si>
+    <t>A la interfaz se le agregara la obcion al conductor si esta disponible como fuera de servicio.</t>
+  </si>
+  <si>
+    <t>Disponibilidad para elaborar</t>
+  </si>
+  <si>
+    <t>Al conductor se le agregara un tiempo de descanso donde en ese momento el conductor tendra que eljir su disponibilidadl.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantidad de sillas </t>
+  </si>
+  <si>
+    <t>La pp requiere tener una funcion de agregar las sillas disponibles a la ventas para que a la hora de que el usuario solicite una silla la pueda comprar.</t>
+  </si>
+  <si>
+    <t>Ubicación</t>
+  </si>
+  <si>
+    <t>La app se requiere implementar un gps donde estara dando la ubicación del respectivo conductor para haci hacerle un control de rutas.</t>
+  </si>
+  <si>
+    <t>Comunicación</t>
+  </si>
+  <si>
+    <t>Se requiere implementar un tipo de chat para que los conductores se puedan comunicar cualquir anomlias o trancones presentes.</t>
+  </si>
+  <si>
+    <t>Chat privado</t>
+  </si>
+  <si>
+    <t>A la hora de crear el Chat a la app del confuctor se requiere que el chat solo sea privado entre los conductores.</t>
+  </si>
+  <si>
+    <t>Mesnajes de voz</t>
+  </si>
+  <si>
+    <t>Se requiere agregar en el Chat una funcion de enviar mensaje de voz para que los conductores se comuniquen mejor entre si.</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>Al escoger el bus de uso el conductor requiere agregar en la aplicación la capacidad de bodea que puede tener dicho bus.</t>
+  </si>
+  <si>
+    <t>Bodega</t>
+  </si>
+  <si>
+    <t>Se implementara Las distintas formas de capacidad para que el conductor coloque en su servicio de viaje la bodega tendra 3 tipos de capasidad de carga como altura, ancho y largo.</t>
+  </si>
+  <si>
+    <t>RF 2.4</t>
+  </si>
+  <si>
+    <t>Registro del conductor</t>
+  </si>
+  <si>
+    <t>La funcion deregistro de conductor requerira ingresar el tipo de experiencia de manejo si esta acto para laborar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experiencia de manejo </t>
+  </si>
+  <si>
+    <t>La applicacion requiere que el conductor se registre con su respectiva experiencia de manejo como publica o particular. Agregando el año y el mes de su experiencia de conduccion</t>
+  </si>
+  <si>
+    <t>Servicio del Conductor</t>
+  </si>
+  <si>
+    <t>Se le solicitara al conductor la informacion como la experiencia de manejo el estado de salud del conductor y el tiempo que solicita descansar tambien requiere ingresar el tipo de bodega que tiene y colocar la cantidad de sillas que tiene en ventas.</t>
+  </si>
+  <si>
+    <t>Requerimientos del Administrador</t>
+  </si>
+  <si>
+    <t>RQF 3</t>
+  </si>
+  <si>
+    <t>RQF 2</t>
+  </si>
+  <si>
+    <t>RQF 2.1</t>
+  </si>
+  <si>
+    <t>RQF 2.1.3</t>
+  </si>
+  <si>
+    <t>RQF 2.1.1</t>
+  </si>
+  <si>
+    <t>RQF 2.1.4</t>
+  </si>
+  <si>
+    <t>RQF 2.2</t>
+  </si>
+  <si>
+    <t>RQF 2.2.1</t>
+  </si>
+  <si>
+    <t>RQF 2.2.2</t>
+  </si>
+  <si>
+    <t>RQF 2.3</t>
+  </si>
+  <si>
+    <t>RQF 2.3.1</t>
+  </si>
+  <si>
+    <t>RQF 2.4.2</t>
+  </si>
+  <si>
+    <t>Servicio del Administrador</t>
+  </si>
+  <si>
+    <t>RQF 3.1</t>
+  </si>
+  <si>
+    <t>El aldministrador requiere una fucion de tanto habilitar con inhabilitar el uso del bus.</t>
+  </si>
+  <si>
+    <t>Calificacion de los buses</t>
+  </si>
+  <si>
+    <t>RQF 3.2</t>
+  </si>
+  <si>
+    <t>se requiere una calificacion al mejor bus donde se le seleccionara por el numero de calificacion y una categori.</t>
+  </si>
+  <si>
+    <t>RQF 3.3</t>
+  </si>
+  <si>
+    <t>Estados de los buses</t>
+  </si>
+  <si>
+    <t>Se requiere reportar los estados de cada bus calificandolos por un color y un tipo de numero.</t>
+  </si>
+  <si>
+    <t>Requerimientos del la Terminal</t>
+  </si>
+  <si>
+    <t>RQF 4</t>
+  </si>
+  <si>
+    <t>Servicio del Terminal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La app se requiere tener un tipo de peticiones como comunicación entre las encomiendas que envien los usuarios. </t>
+  </si>
+  <si>
+    <t>RQF 4.1</t>
+  </si>
+  <si>
+    <t>Peticiones</t>
+  </si>
+  <si>
+    <t>En esta funcion de peticiones se rquiere tener un Chat y un tipo de llamadas tando por whasapp como por una paguina wep las llamadas se aplicarian como por celular y telefonos.</t>
+  </si>
+  <si>
+    <t>RQF 4.2</t>
+  </si>
+  <si>
+    <t>Encomiendas</t>
+  </si>
+  <si>
+    <t>RQF 4.1.2</t>
+  </si>
+  <si>
+    <t>Chat</t>
+  </si>
+  <si>
+    <t>Se requiere agregar un tipo de chat para las peticiones de los usuarios donde podran enviar informacion por medio de whatsapp y paguina web.</t>
+  </si>
+  <si>
+    <t>RQF 4.1.1</t>
+  </si>
+  <si>
+    <t>Llamadas</t>
+  </si>
+  <si>
+    <t>Se ingresara una funcion de recibir llamdas tanto por celular como por servicios telefonia.</t>
+  </si>
+  <si>
+    <t>La app requiere tener un lector de QR donde dara la funcion de escaiar la informacion del usuario regiistrado</t>
+  </si>
+  <si>
+    <t>RQF 4.2.1</t>
+  </si>
+  <si>
+    <t>Lector QR</t>
+  </si>
+  <si>
+    <t>A la hora de usar el lector de QR mostrara la informacion del usuario tanto la bodega y su equipaje como sus datos personales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las estampillas </t>
+  </si>
+  <si>
+    <t>RQF 4.2.2</t>
+  </si>
+  <si>
+    <t>Las estampillas indicara las funcion del origen del producto como el destino que llegara.</t>
+  </si>
+  <si>
+    <t>RQF 4.3</t>
+  </si>
+  <si>
+    <t>Lo que se solicita en este requisito es Ver la comunicación de experiencia y peticiones del Cliente y para el conductor se comunicara la terminal como la tripulacion.</t>
   </si>
 </sst>
 </file>
@@ -656,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDFEB15-6F42-4DC7-B14E-DCF7BFBB7782}">
-  <dimension ref="B2:K27"/>
+  <dimension ref="B2:V107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:K3"/>
+    <sheetView tabSelected="1" topLeftCell="L46" workbookViewId="0">
+      <selection activeCell="Q54" sqref="Q54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,21 +966,42 @@
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" customWidth="1"/>
+    <col min="17" max="17" width="24.85546875" customWidth="1"/>
+    <col min="20" max="20" width="18.7109375" customWidth="1"/>
+    <col min="21" max="21" width="19.28515625" customWidth="1"/>
+    <col min="22" max="22" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="H2" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="S2" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -692,14 +1010,22 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+    </row>
+    <row r="4" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="8"/>
@@ -707,102 +1033,194 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="2:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="8"/>
+      <c r="S5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="U5" s="7"/>
+      <c r="V5" s="8"/>
+    </row>
+    <row r="6" spans="2:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="8"/>
       <c r="H6" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="8"/>
-    </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="8"/>
+      <c r="S6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="U6" s="7"/>
+      <c r="V6" s="8"/>
+    </row>
+    <row r="7" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="8"/>
       <c r="H7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="2:11" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="8"/>
+      <c r="S7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="V7" s="8"/>
+    </row>
+    <row r="8" spans="2:22" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
       <c r="H8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="2:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="8"/>
+      <c r="S8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="U8" s="7"/>
+      <c r="V8" s="8"/>
+    </row>
+    <row r="9" spans="2:22" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="2:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="8"/>
@@ -810,102 +1228,192 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="8"/>
-    </row>
-    <row r="12" spans="2:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="8"/>
+      <c r="S11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="U11" s="7"/>
+      <c r="V11" s="8"/>
+    </row>
+    <row r="12" spans="2:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
       <c r="H12" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="8"/>
-    </row>
-    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="8"/>
+      <c r="S12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="U12" s="7"/>
+      <c r="V12" s="8"/>
+    </row>
+    <row r="13" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="8"/>
       <c r="H13" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K13" s="8"/>
-    </row>
-    <row r="14" spans="2:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="8"/>
+      <c r="S13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="V13" s="8"/>
+    </row>
+    <row r="14" spans="2:22" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
       <c r="H14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="2:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="8"/>
+      <c r="S14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="6"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="8"/>
+    </row>
+    <row r="15" spans="2:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="8"/>
@@ -913,102 +1421,194 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="8"/>
-    </row>
-    <row r="18" spans="2:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="8"/>
+      <c r="S17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="U17" s="7"/>
+      <c r="V17" s="8"/>
+    </row>
+    <row r="18" spans="2:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="8"/>
       <c r="H18" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="8"/>
-    </row>
-    <row r="19" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="8"/>
+      <c r="S18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T18" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="U18" s="7"/>
+      <c r="V18" s="8"/>
+    </row>
+    <row r="19" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19" s="8"/>
       <c r="H19" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K19" s="8"/>
-    </row>
-    <row r="20" spans="2:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="8"/>
+      <c r="S19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="V19" s="8"/>
+    </row>
+    <row r="20" spans="2:22" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="8"/>
       <c r="H20" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="8"/>
-    </row>
-    <row r="21" spans="2:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="8"/>
+      <c r="S20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="U20" s="7"/>
+      <c r="V20" s="8"/>
+    </row>
+    <row r="21" spans="2:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="8"/>
@@ -1016,97 +1616,1688 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="8"/>
-    </row>
-    <row r="24" spans="2:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="8"/>
+      <c r="S23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T23" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="U23" s="7"/>
+      <c r="V23" s="8"/>
+    </row>
+    <row r="24" spans="2:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="8"/>
       <c r="H24" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="8"/>
-    </row>
-    <row r="25" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="8"/>
+      <c r="S24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="U24" s="7"/>
+      <c r="V24" s="8"/>
+    </row>
+    <row r="25" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E25" s="8"/>
       <c r="H25" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K25" s="8"/>
-    </row>
-    <row r="26" spans="2:11" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q25" s="8"/>
+      <c r="S25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="U25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="V25" s="8"/>
+    </row>
+    <row r="26" spans="2:22" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="8"/>
       <c r="H26" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="8"/>
-    </row>
-    <row r="27" spans="2:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="8"/>
+      <c r="S26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="U26" s="7"/>
+      <c r="V26" s="8"/>
+    </row>
+    <row r="27" spans="2:22" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V27" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8"/>
+      <c r="H29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J29" s="7"/>
+      <c r="K29" s="8"/>
+      <c r="S29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T29" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="U29" s="7"/>
+      <c r="V29" s="8"/>
+    </row>
+    <row r="30" spans="2:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="8"/>
+      <c r="H30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J30" s="7"/>
+      <c r="K30" s="8"/>
+      <c r="S30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T30" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="U30" s="7"/>
+      <c r="V30" s="8"/>
+    </row>
+    <row r="31" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="H31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K31" s="8"/>
+      <c r="S31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="U31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="V31" s="8"/>
+    </row>
+    <row r="32" spans="2:22" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="8"/>
+      <c r="H32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J32" s="7"/>
+      <c r="K32" s="8"/>
+      <c r="S32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="U32" s="7"/>
+      <c r="V32" s="8"/>
+    </row>
+    <row r="33" spans="2:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V33" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="2:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="8"/>
+      <c r="H35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J35" s="7"/>
+      <c r="K35" s="8"/>
+      <c r="S35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T35" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="U35" s="7"/>
+      <c r="V35" s="8"/>
+    </row>
+    <row r="36" spans="2:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="8"/>
+      <c r="H36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J36" s="7"/>
+      <c r="K36" s="8"/>
+      <c r="S36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T36" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="U36" s="7"/>
+      <c r="V36" s="8"/>
+    </row>
+    <row r="37" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="H37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K37" s="8"/>
+      <c r="S37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="U37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="V37" s="8"/>
+    </row>
+    <row r="38" spans="2:22" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="8"/>
+      <c r="H38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J38" s="7"/>
+      <c r="K38" s="8"/>
+      <c r="S38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T38" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="U38" s="7"/>
+      <c r="V38" s="8"/>
+    </row>
+    <row r="39" spans="2:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V39" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="2:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="8"/>
+      <c r="H41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J41" s="7"/>
+      <c r="K41" s="8"/>
+      <c r="S41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T41" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="U41" s="7"/>
+      <c r="V41" s="8"/>
+    </row>
+    <row r="42" spans="2:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="8"/>
+      <c r="H42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J42" s="7"/>
+      <c r="K42" s="8"/>
+      <c r="S42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T42" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="U42" s="7"/>
+      <c r="V42" s="8"/>
+    </row>
+    <row r="43" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="H43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="8"/>
+      <c r="S43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="U43" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="V43" s="8"/>
+    </row>
+    <row r="44" spans="2:22" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="8"/>
+      <c r="H44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J44" s="7"/>
+      <c r="K44" s="8"/>
+      <c r="S44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="U44" s="7"/>
+      <c r="V44" s="8"/>
+    </row>
+    <row r="45" spans="2:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V45" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="2:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="8"/>
+      <c r="H47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J47" s="7"/>
+      <c r="K47" s="8"/>
+      <c r="S47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T47" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="U47" s="7"/>
+      <c r="V47" s="8"/>
+    </row>
+    <row r="48" spans="2:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="8"/>
+      <c r="H48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J48" s="7"/>
+      <c r="K48" s="8"/>
+      <c r="S48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T48" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="U48" s="7"/>
+      <c r="V48" s="8"/>
+    </row>
+    <row r="49" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="H49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K49" s="8"/>
+      <c r="S49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T49" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="U49" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="V49" s="8"/>
+    </row>
+    <row r="50" spans="2:22" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="8"/>
+      <c r="H50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J50" s="7"/>
+      <c r="K50" s="8"/>
+      <c r="S50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T50" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="U50" s="7"/>
+      <c r="V50" s="8"/>
+    </row>
+    <row r="51" spans="2:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V51" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="2:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="8"/>
+      <c r="H53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J53" s="7"/>
+      <c r="K53" s="8"/>
+      <c r="S53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T53" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="U53" s="7"/>
+      <c r="V53" s="8"/>
+    </row>
+    <row r="54" spans="2:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="8"/>
+      <c r="H54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J54" s="7"/>
+      <c r="K54" s="8"/>
+      <c r="S54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T54" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="U54" s="7"/>
+      <c r="V54" s="8"/>
+    </row>
+    <row r="55" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="8"/>
+      <c r="H55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K55" s="8"/>
+      <c r="S55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="U55" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="V55" s="8"/>
+    </row>
+    <row r="56" spans="2:22" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="8"/>
+      <c r="H56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J56" s="7"/>
+      <c r="K56" s="8"/>
+      <c r="S56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T56" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="U56" s="7"/>
+      <c r="V56" s="8"/>
+    </row>
+    <row r="57" spans="2:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V57" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="2:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="8"/>
+      <c r="H59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J59" s="7"/>
+      <c r="K59" s="8"/>
+    </row>
+    <row r="60" spans="2:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="E60" s="8"/>
+      <c r="H60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J60" s="7"/>
+      <c r="K60" s="8"/>
+    </row>
+    <row r="61" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="8"/>
+      <c r="H61" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K61" s="8"/>
+    </row>
+    <row r="62" spans="2:22" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="7"/>
+      <c r="E62" s="8"/>
+      <c r="H62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J62" s="7"/>
+      <c r="K62" s="8"/>
+    </row>
+    <row r="63" spans="2:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="2:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="8"/>
+      <c r="H65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J65" s="7"/>
+      <c r="K65" s="8"/>
+    </row>
+    <row r="66" spans="2:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D66" s="7"/>
+      <c r="E66" s="8"/>
+      <c r="H66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J66" s="7"/>
+      <c r="K66" s="8"/>
+    </row>
+    <row r="67" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="8"/>
+      <c r="H67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K67" s="8"/>
+    </row>
+    <row r="68" spans="2:11" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" s="7"/>
+      <c r="E68" s="8"/>
+      <c r="H68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J68" s="7"/>
+      <c r="K68" s="8"/>
+    </row>
+    <row r="69" spans="2:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="2:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="8"/>
+      <c r="H71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J71" s="7"/>
+      <c r="K71" s="8"/>
+    </row>
+    <row r="72" spans="2:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="8"/>
+      <c r="H72" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J72" s="7"/>
+      <c r="K72" s="8"/>
+    </row>
+    <row r="73" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="8"/>
+      <c r="H73" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K73" s="8"/>
+    </row>
+    <row r="74" spans="2:11" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D74" s="7"/>
+      <c r="E74" s="8"/>
+      <c r="H74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J74" s="7"/>
+      <c r="K74" s="8"/>
+    </row>
+    <row r="75" spans="2:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="2:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D77" s="7"/>
+      <c r="E77" s="8"/>
+    </row>
+    <row r="78" spans="2:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D78" s="7"/>
+      <c r="E78" s="8"/>
+    </row>
+    <row r="79" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" s="8"/>
+    </row>
+    <row r="80" spans="2:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D80" s="7"/>
+      <c r="E80" s="8"/>
+    </row>
+    <row r="81" spans="2:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="2:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D84" s="7"/>
+      <c r="E84" s="8"/>
+    </row>
+    <row r="85" spans="2:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D85" s="7"/>
+      <c r="E85" s="8"/>
+    </row>
+    <row r="86" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E86" s="8"/>
+    </row>
+    <row r="87" spans="2:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D87" s="7"/>
+      <c r="E87" s="8"/>
+    </row>
+    <row r="88" spans="2:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="91" spans="2:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D91" s="7"/>
+      <c r="E91" s="8"/>
+    </row>
+    <row r="92" spans="2:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D92" s="7"/>
+      <c r="E92" s="8"/>
+    </row>
+    <row r="93" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E93" s="8"/>
+    </row>
+    <row r="94" spans="2:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D94" s="7"/>
+      <c r="E94" s="8"/>
+    </row>
+    <row r="95" spans="2:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="97" spans="2:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D97" s="7"/>
+      <c r="E97" s="8"/>
+    </row>
+    <row r="98" spans="2:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D98" s="7"/>
+      <c r="E98" s="8"/>
+    </row>
+    <row r="99" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E99" s="8"/>
+    </row>
+    <row r="100" spans="2:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D100" s="7"/>
+      <c r="E100" s="8"/>
+    </row>
+    <row r="101" spans="2:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="103" spans="2:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D103" s="7"/>
+      <c r="E103" s="8"/>
+    </row>
+    <row r="104" spans="2:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D104" s="7"/>
+      <c r="E104" s="8"/>
+    </row>
+    <row r="105" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E105" s="8"/>
+    </row>
+    <row r="106" spans="2:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D106" s="7"/>
+      <c r="E106" s="8"/>
+    </row>
+    <row r="107" spans="2:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="172">
+    <mergeCell ref="T54:V54"/>
+    <mergeCell ref="U55:V55"/>
+    <mergeCell ref="T56:V56"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="U49:V49"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="T53:V53"/>
+    <mergeCell ref="T38:V38"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="T36:V36"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="S2:V3"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="N2:Q3"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="I74:K74"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="I68:K68"/>
+    <mergeCell ref="I71:K71"/>
+    <mergeCell ref="I72:K72"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="I66:K66"/>
+    <mergeCell ref="I65:K65"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="I59:K59"/>
+    <mergeCell ref="I60:K60"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="I62:K62"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="C100:E100"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="H2:K3"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="C8:E8"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="I12:K12"/>
@@ -1119,28 +3310,6 @@
     <mergeCell ref="I23:K23"/>
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="J25:K25"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="H2:K3"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
